--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tg-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tg-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,22 +534,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.03805099999999999</v>
+        <v>0.08886633333333334</v>
       </c>
       <c r="H2">
-        <v>0.114153</v>
+        <v>0.266599</v>
       </c>
       <c r="I2">
-        <v>0.06369871383874688</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="J2">
-        <v>0.06369871383874688</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,27 +564,27 @@
         <v>0.005891</v>
       </c>
       <c r="O2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>7.471948033333332E-05</v>
+        <v>0.0001745038565555556</v>
       </c>
       <c r="R2">
-        <v>0.0006724753229999999</v>
+        <v>0.001570534709</v>
       </c>
       <c r="S2">
-        <v>0.00397252964952793</v>
+        <v>0.1046228481303011</v>
       </c>
       <c r="T2">
-        <v>0.00397252964952793</v>
+        <v>0.1046228481303011</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,25 +593,25 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03805099999999999</v>
+        <v>0.1980723333333333</v>
       </c>
       <c r="H3">
-        <v>0.114153</v>
+        <v>0.594217</v>
       </c>
       <c r="I3">
-        <v>0.06369871383874688</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="J3">
-        <v>0.06369871383874688</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,33 +620,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N3">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.001123392356666667</v>
+        <v>0.0003889480385555556</v>
       </c>
       <c r="R3">
-        <v>0.01011053121</v>
+        <v>0.003500532347</v>
       </c>
       <c r="S3">
-        <v>0.05972618418921895</v>
+        <v>0.2331917034476615</v>
       </c>
       <c r="T3">
-        <v>0.05972618418921895</v>
+        <v>0.2331917034476615</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1980723333333334</v>
+        <v>0.151686</v>
       </c>
       <c r="H4">
-        <v>0.5942170000000001</v>
+        <v>0.455058</v>
       </c>
       <c r="I4">
-        <v>0.3315800604549917</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="J4">
-        <v>0.3315800604549917</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,27 +688,27 @@
         <v>0.005891</v>
       </c>
       <c r="O4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.0003889480385555556</v>
+        <v>0.000297860742</v>
       </c>
       <c r="R4">
-        <v>0.003500532347000001</v>
+        <v>0.002680746678</v>
       </c>
       <c r="S4">
-        <v>0.02067877892612143</v>
+        <v>0.1785808049710559</v>
       </c>
       <c r="T4">
-        <v>0.02067877892612142</v>
+        <v>0.1785808049710559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1980723333333334</v>
+        <v>0.2528413333333333</v>
       </c>
       <c r="H5">
-        <v>0.5942170000000001</v>
+        <v>0.758524</v>
       </c>
       <c r="I5">
-        <v>0.3315800604549917</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="J5">
-        <v>0.3315800604549917</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02952333333333334</v>
+        <v>0.001963666666666667</v>
       </c>
       <c r="N5">
-        <v>0.08857000000000001</v>
+        <v>0.005891</v>
       </c>
       <c r="O5">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9376356379881645</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.005847755521111113</v>
+        <v>0.0004964960982222223</v>
       </c>
       <c r="R5">
-        <v>0.05262979969000001</v>
+        <v>0.004468464884</v>
       </c>
       <c r="S5">
-        <v>0.3109012815288703</v>
+        <v>0.2976715638662878</v>
       </c>
       <c r="T5">
-        <v>0.3109012815288703</v>
+        <v>0.2976715638662878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.08168266666666667</v>
+        <v>0.157931</v>
       </c>
       <c r="H6">
-        <v>0.245048</v>
+        <v>0.473793</v>
       </c>
       <c r="I6">
-        <v>0.1367396601820123</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="J6">
-        <v>0.1367396601820123</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,332 +812,22 @@
         <v>0.005891</v>
       </c>
       <c r="O6">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.06236436201183557</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.0001603975297777778</v>
+        <v>0.0003101238403333334</v>
       </c>
       <c r="R6">
-        <v>0.001443577768</v>
+        <v>0.002791114563</v>
       </c>
       <c r="S6">
-        <v>0.008527681668966391</v>
+        <v>0.1859330795846936</v>
       </c>
       <c r="T6">
-        <v>0.008527681668966391</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.08168266666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.245048</v>
-      </c>
-      <c r="I7">
-        <v>0.1367396601820123</v>
-      </c>
-      <c r="J7">
-        <v>0.1367396601820123</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N7">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P7">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q7">
-        <v>0.002411544595555556</v>
-      </c>
-      <c r="R7">
-        <v>0.02170390136</v>
-      </c>
-      <c r="S7">
-        <v>0.1282119785130459</v>
-      </c>
-      <c r="T7">
-        <v>0.1282119785130459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.1226536666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.367961</v>
-      </c>
-      <c r="I8">
-        <v>0.2053265568387966</v>
-      </c>
-      <c r="J8">
-        <v>0.2053265568387966</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N8">
-        <v>0.005891</v>
-      </c>
-      <c r="O8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P8">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q8">
-        <v>0.0002408509167777777</v>
-      </c>
-      <c r="R8">
-        <v>0.002167658251</v>
-      </c>
-      <c r="S8">
-        <v>0.01280505972133844</v>
-      </c>
-      <c r="T8">
-        <v>0.01280505972133844</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.1226536666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.367961</v>
-      </c>
-      <c r="I9">
-        <v>0.2053265568387966</v>
-      </c>
-      <c r="J9">
-        <v>0.2053265568387966</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N9">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P9">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q9">
-        <v>0.003621145085555556</v>
-      </c>
-      <c r="R9">
-        <v>0.03259030577</v>
-      </c>
-      <c r="S9">
-        <v>0.1925214971174581</v>
-      </c>
-      <c r="T9">
-        <v>0.1925214971174581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.1568993333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.4706979999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.2626550086854527</v>
-      </c>
-      <c r="J10">
-        <v>0.2626550086854527</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.001963666666666667</v>
-      </c>
-      <c r="N10">
-        <v>0.005891</v>
-      </c>
-      <c r="O10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="P10">
-        <v>0.06236436201183557</v>
-      </c>
-      <c r="Q10">
-        <v>0.0003080979908888888</v>
-      </c>
-      <c r="R10">
-        <v>0.002772881917999999</v>
-      </c>
-      <c r="S10">
-        <v>0.01638031204588139</v>
-      </c>
-      <c r="T10">
-        <v>0.01638031204588139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.1568993333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.4706979999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.2626550086854527</v>
-      </c>
-      <c r="J11">
-        <v>0.2626550086854527</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.02952333333333334</v>
-      </c>
-      <c r="N11">
-        <v>0.08857000000000001</v>
-      </c>
-      <c r="O11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="P11">
-        <v>0.9376356379881645</v>
-      </c>
-      <c r="Q11">
-        <v>0.004632191317777777</v>
-      </c>
-      <c r="R11">
-        <v>0.04168972186</v>
-      </c>
-      <c r="S11">
-        <v>0.2462746966395713</v>
-      </c>
-      <c r="T11">
-        <v>0.2462746966395713</v>
+        <v>0.1859330795846936</v>
       </c>
     </row>
   </sheetData>
